--- a/2025-03-03_4o-mini_feedback_sheets/overall_spec/Eosinophilic esophagitis_spec_overall.xlsx
+++ b/2025-03-03_4o-mini_feedback_sheets/overall_spec/Eosinophilic esophagitis_spec_overall.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hist" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="soc" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="obj" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="test" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -466,105 +467,105 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dysphagia, particularly for solids, is a common symptom of Eosinophilic esophagitis due to esophageal inflammation and strictures.</t>
+          <t>Dysphagia, especially for solids, is a common symptom of Eosinophilic esophagitis due to esophageal inflammation and narrowing.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Antacids no longer providing relief is present.</t>
+          <t>Raynauds phenomenon reported is present.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>In Eosinophilic esophagitis, symptoms typically do not improve with antacids, which suggests a different underlying cause for the symptoms.</t>
+          <t>Raynaud's phenomenon is not typically associated with Eosinophilic esophagitis and suggests other conditions like connective tissue disorders.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Difficulty swallowing liquids is present.</t>
+          <t>Current heartburn is present.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dysphagia for liquids can also indicate esophageal dysfunction associated with Eosinophilic esophagitis.</t>
+          <t>Heartburn is a frequent symptom in Eosinophilic esophagitis, often due to esophageal inflammation.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Long-standing heartburn (duration of years) is present.</t>
+          <t>Telangiectasias reported is present.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Chronic heartburn over many years is more indicative of gastroesophageal reflux disease (GERD) rather than Eosinophilic esophagitis, which often presents with more acute symptoms.</t>
+          <t>Telangiectasias are not characteristic of Eosinophilic esophagitis and may indicate other systemic conditions.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Pain when swallowing (aka odynophagia) is present.</t>
+          <t>Current reflux is present.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Odynophagia is a significant symptom that can occur in Eosinophilic esophagitis due to inflammation and irritation of the esophagus.</t>
+          <t>Reflux symptoms are common in Eosinophilic esophagitis, as the condition can mimic or coexist with GERD.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Long-standing reflux (duration of years) is present.</t>
+          <t>Hand pain out of proportion to other joints is present.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Chronic reflux symptoms are more characteristic of GERD and less common in Eosinophilic esophagitis, which typically has a more acute presentation.</t>
+          <t>This symptom is not typical for Eosinophilic esophagitis and may suggest other rheumatologic conditions.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Current heartburn is present.</t>
+          <t>Pain when swallowing (aka odynophagia) is present.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Heartburn is a common symptom in Eosinophilic esophagitis, often due to esophageal inflammation.</t>
+          <t>Odynophagia can occur in Eosinophilic esophagitis due to esophageal inflammation and damage.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Hoarse voice reported is absent.</t>
+          <t>Pain relieved with regurgitation is present.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>A hoarse voice can indicate laryngeal involvement or irritation, which is not typical in Eosinophilic esophagitis.</t>
+          <t>Pain relief with regurgitation is more characteristic of GERD than Eosinophilic esophagitis.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Weight loss reported is present.</t>
+          <t>Long-standing heartburn (duration of years) is present.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Weight loss can occur in Eosinophilic esophagitis due to difficulty eating and swallowing, leading to inadequate nutrition.</t>
+          <t>Chronic heartburn is often associated with Eosinophilic esophagitis, as the condition can persist over time.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Cough reported is absent.</t>
+          <t>Pain is reproducible with arm movements is present.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>A cough is often associated with esophageal irritation or reflux, and its absence may suggest that Eosinophilic esophagitis is less likely.</t>
+          <t>Pain related to arm movements is not typical for Eosinophilic esophagitis and may suggest musculoskeletal causes.</t>
         </is>
       </c>
     </row>
@@ -612,110 +613,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Female is present.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Eosinophilic esophagitis is more commonly diagnosed in females, which supports the likelihood of this diagnosis.</t>
+          <t>Eosinophilic esophagitis can occur in females, although it is more common in males. The presence of a female patient does not strongly favor the diagnosis but is not against it either.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Alcohol use disorder is absent</t>
+          <t>Environmental allergies is absent.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Alcohol use disorder can exacerbate esophageal conditions; its absence may suggest a lower likelihood of Eosinophilic esophagitis.</t>
+          <t>Eosinophilic esophagitis is often associated with environmental allergies, so their absence is a point against the diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Middle age</t>
+          <t>Middle age is present.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Eosinophilic esophagitis often presents in middle-aged individuals, making this demographic detail supportive of the diagnosis.</t>
+          <t>Eosinophilic esophagitis can occur in middle-aged individuals, although it is more common in younger populations. This finding is neutral but slightly supportive.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Nicotine dependence is absent</t>
+          <t>Asthma is absent.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Nicotine dependence is often associated with esophageal issues; its absence may indicate a lower risk for Eosinophilic esophagitis.</t>
+          <t>Asthma is commonly associated with eosinophilic esophagitis, so its absence is a point against the diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Takes amlodipine</t>
+          <t>Takes amlodipine is present.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>While not directly linked, certain medications can influence esophageal conditions; however, this is less specific.</t>
+          <t>Amlodipine use is not directly related to eosinophilic esophagitis, but medication use can sometimes be associated with esophageal symptoms.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Prior treatment with radiation to the neck, arm, or jaw is absent</t>
+          <t>Eczema is absent.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Radiation treatment can lead to esophageal complications; its absence suggests a lower likelihood of related conditions.</t>
+          <t>Eczema is often associated with eosinophilic esophagitis, so its absence is a point against the diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Absence of environmental allergies</t>
+          <t>Environmental allergies is absent.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>While environmental allergies are often associated with Eosinophilic esophagitis, their absence does not strongly negate the diagnosis.</t>
+          <t>While the absence of environmental allergies is not supportive, it does not rule out eosinophilic esophagitis, as not all patients have allergies.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Absence of diagnosed hypertension</t>
+          <t>Alcohol use disorder is absent.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Hypertension is often associated with various gastrointestinal conditions; its absence may suggest a lower risk for Eosinophilic esophagitis.</t>
+          <t>While not directly related, the absence of alcohol use disorder does not support eosinophilic esophagitis, as alcohol can exacerbate esophageal symptoms.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Absence of asthma</t>
+          <t>Asthma is absent.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Similar to allergies, asthma is often comorbid with Eosinophilic esophagitis, but its absence does not rule out the condition.</t>
+          <t>The absence of asthma does not strongly support eosinophilic esophagitis, but it is not uncommon for patients to have eosinophilic esophagitis without asthma.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Absence of obesity</t>
+          <t>Nicotine dependence is absent.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Obesity is a risk factor for many gastrointestinal disorders; its absence may indicate a lower likelihood of Eosinophilic esophagitis.</t>
+          <t>Nicotine use can exacerbate esophageal symptoms, so its absence does not support eosinophilic esophagitis.</t>
         </is>
       </c>
     </row>
@@ -768,17 +769,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Social stress can exacerbate symptoms of Eosinophilic esophagitis, making it a relevant factor in the diagnosis.</t>
+          <t>Social stress can exacerbate symptoms of Eosinophilic esophagitis, as stress is known to influence immune responses and inflammation.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Family history of Rheumatoid Arthritis is absent.</t>
+          <t>Alcohol use is absent.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The absence of a family history of autoimmune diseases like Rheumatoid Arthritis may suggest a lower likelihood of Eosinophilic esophagitis, which can be associated with such conditions.</t>
+          <t>The absence of alcohol use reduces the risk of esophageal irritation and inflammation, which are associated with Eosinophilic esophagitis.</t>
         </is>
       </c>
     </row>
@@ -790,17 +791,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tobacco use has been associated with various gastrointestinal conditions, including Eosinophilic esophagitis, suggesting a potential link.</t>
+          <t>While current tobacco use is more directly linked to esophageal conditions, prior use may still contribute to esophageal inflammation.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Alcohol use is absent.</t>
+          <t>Current tobacco use is absent.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The absence of alcohol use may indicate a lower risk for gastrointestinal inflammation, which can be a factor in Eosinophilic esophagitis.</t>
+          <t>The absence of current tobacco use decreases the likelihood of esophageal inflammation, which is a risk factor for Eosinophilic esophagitis.</t>
         </is>
       </c>
     </row>
@@ -812,61 +813,61 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>While not directly linked, a family history of cardiovascular issues may suggest a genetic predisposition to inflammatory conditions, including Eosinophilic esophagitis.</t>
+          <t>Although not directly related, a family history of cardiovascular issues may indicate a genetic predisposition to inflammatory conditions.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Current tobacco use is absent.</t>
+          <t>Family history of cancer is absent.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Current tobacco use is often associated with various gastrointestinal issues; its absence may suggest a lower likelihood of Eosinophilic esophagitis.</t>
+          <t>The absence of a family history of cancer reduces the likelihood of genetic predispositions that could contribute to esophageal conditions.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Family history of cancer is absent.</t>
+          <t>Family history of Rheumatoid Arthritis is absent.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>The absence of a family history of cancer may suggest a lower likelihood of malignancy-related symptoms, allowing for a clearer focus on Eosinophilic esophagitis.</t>
+          <t>The absence of autoimmune conditions in the family history does not strongly influence the likelihood of Eosinophilic esophagitis.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Recent Travel is absent.</t>
+          <t>Recent medical procedure is absent.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The absence of recent travel may reduce the likelihood of infections or exposures that could mimic or exacerbate Eosinophilic esophagitis symptoms.</t>
+          <t>The absence of recent medical procedures reduces the likelihood of iatrogenic factors contributing to esophageal inflammation.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>Recent Travel is absent.</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>The absence of recent travel reduces the likelihood of exposure to environmental allergens that could trigger Eosinophilic esophagitis.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>Gestational complications with prior pregnancy is absent.</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>The absence of gestational complications may indicate a lower risk for certain inflammatory conditions, potentially supporting the diagnosis of Eosinophilic esophagitis.</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Recent medical procedure is absent.</t>
-        </is>
-      </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The absence of recent medical procedures may indicate a lower risk for procedural complications that could lead to symptoms similar to Eosinophilic esophagitis.</t>
+          <t>The absence of gestational complications suggests a lower likelihood of developmental factors contributing to Eosinophilic esophagitis.</t>
         </is>
       </c>
     </row>
@@ -914,110 +915,261 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Weight loss on vitals is present.</t>
+          <t>Telangiectasias on exam is present.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Weight loss can be a significant indicator of Eosinophilic esophagitis due to difficulty swallowing and food avoidance.</t>
+          <t>Telangiectasias can be associated with eosinophilic esophagitis due to its potential link with other atopic conditions.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Raynauds phenomenon on exam is absent.</t>
+          <t>Absence of hoarse voice observed.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The absence of Raynaud's phenomenon suggests that systemic autoimmune conditions, which can be associated with esophageal symptoms, are less likely.</t>
+          <t>Hoarseness can be associated with eosinophilic esophagitis due to esophageal inflammation, so its absence argues against the diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Telangiectasias on exam is present.</t>
+          <t>Weight loss on vitals is present.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Telangiectasias can be associated with various conditions, including those that may overlap with Eosinophilic esophagitis, suggesting a potential inflammatory process.</t>
+          <t>Weight loss can occur in eosinophilic esophagitis due to difficulty swallowing and dietary restrictions.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Hoarse voice observed is absent.</t>
+          <t>Absence of cough observed.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The absence of a hoarse voice can indicate that other conditions affecting the esophagus or throat are less likely, which may reduce the likelihood of Eosinophilic esophagitis.</t>
+          <t>Cough can be a symptom of eosinophilic esophagitis due to esophageal irritation, so its absence argues against the diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Cough observed is absent.</t>
+          <t>Absence of obesity by vital signs.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>While cough is not a direct indicator, its absence can suggest that other common esophageal conditions are less likely, allowing for a focus on Eosinophilic esophagitis.</t>
+          <t>Eosinophilic esophagitis is less commonly associated with obesity, so its absence does not contradict the diagnosis.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Cough observed is absent.</t>
+          <t>Absence of hand thickening observed.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>The absence of cough may suggest that there is no significant esophageal irritation or inflammation, which is often present in Eosinophilic esophagitis.</t>
+          <t>Hand thickening is not typically associated with eosinophilic esophagitis, so its absence is neutral or slightly against the diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Hoarse voice observed is absent.</t>
+          <t>Absence of high blood pressure when checked.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>The absence of a hoarse voice can help differentiate Eosinophilic esophagitis from other conditions that affect the larynx and throat.</t>
+          <t>High blood pressure is not typically associated with eosinophilic esophagitis, so its absence is neutral or slightly supportive.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Joint swelling observed is absent.</t>
+          <t>Absence of finger ulcers observed.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The absence of joint swelling can indicate that systemic inflammatory or autoimmune conditions are less likely, which may correlate with a lower likelihood of Eosinophilic esophagitis.</t>
+          <t>Finger ulcers are not associated with eosinophilic esophagitis, so their absence is neutral or slightly against the diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Epigastric pain on palpation is absent.</t>
+          <t>Absence of epigastric pain on palpation.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>The absence of epigastric pain can indicate that other gastrointestinal conditions are less likely, supporting the diagnosis of Eosinophilic esophagitis.</t>
+          <t>Epigastric pain is more commonly associated with other gastrointestinal conditions, so its absence can slightly support eosinophilic esophagitis.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Weakness on exam is absent.</t>
+          <t>Absence of weakness on exam.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The absence of weakness can suggest that there is no systemic illness affecting the patient, which may lower the likelihood of Eosinophilic esophagitis.</t>
+          <t>Weakness is not a typical symptom of eosinophilic esophagitis, so its absence is neutral or slightly against the diagnosis.</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Supports Eosinophilic esophagitis</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Rationale for Eosinophilic esophagitis</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Against Eosinophilic esophagitis</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Rationale Against Eosinophilic esophagitis</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>None of the findings strongly support Eosinophilic esophagitis</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>The provided findings do not include any that are typically associated with Eosinophilic esophagitis.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>MBS shows aspiration is absent</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Aspiration is not a typical finding in Eosinophilic esophagitis, so its absence does not strongly argue against the diagnosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>None of the findings strongly support Eosinophilic esophagitis</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>The provided findings do not include any that are typically associated with Eosinophilic esophagitis.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>CT shows ILD is absent</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Interstitial lung disease (ILD) is not associated with Eosinophilic esophagitis, so its absence does not strongly argue against the diagnosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>None of the findings strongly support Eosinophilic esophagitis</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>The provided findings do not include any that are typically associated with Eosinophilic esophagitis.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>CXR shows widened mediastinum is absent</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>A widened mediastinum is not a typical finding in Eosinophilic esophagitis, so its absence does not strongly argue against the diagnosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>None of the findings strongly support Eosinophilic esophagitis</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>The provided findings do not include any that are typically associated with Eosinophilic esophagitis.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ANA strong positive is absent</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Antinuclear antibodies (ANA) are not typically associated with Eosinophilic esophagitis, so their absence does not strongly argue against the diagnosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>None of the findings strongly support Eosinophilic esophagitis</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>The provided findings do not include any that are typically associated with Eosinophilic esophagitis.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Hyperlipidemia on lab testing is present</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Hyperlipidemia is not associated with Eosinophilic esophagitis, so its presence does not strongly argue against the diagnosis.</t>
         </is>
       </c>
     </row>
